--- a/tarea3/data.xlsx
+++ b/tarea3/data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmcl-my.sharepoint.com/personal/jose_pintom_usm_cl/Documents/2022-02/Sistemas Operativos/tareas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\U\lab-so\tarea3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{9F4FC837-F89A-43E0-8A11-38E17ECAA879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04F876D-A5A6-4C17-AC04-47B6C70423B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43719626-85B1-4721-B7B7-FEC84886D100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-945" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1005" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -81,13 +80,17 @@
     <t>3.10GHz</t>
   </si>
   <si>
-    <t>Al realizar muchas pruebas pudimos notar que, por lo general, el tiempo de ejecución es menor cuando no ocupamos hebras. Esto sucede porque al crear tantas hebras (recursivamente), genera mucho costo. Mientras más hebras sean, se nota más la diferencia de costo al crear las hebras.</t>
-  </si>
-  <si>
     <t>52151600 ns</t>
   </si>
   <si>
     <t>46107500 ns</t>
+  </si>
+  <si>
+    <t>Al realizar muchas pruebas pudimos notar que, por lo general, el tiempo de ejecución es menor cuando no ocupamos hebras. Esto sucede porque al crear tantas hebras (recursivamente), genera mucho costo. 
+Mientras más hebras sean, se nota más la diferencia de costo al crear las hebras.
+[ns] = [nanosegundo]
+Para un n = 48 y un m = 4 con hebras se demora 103046800 [ns] y sin hebras 51616000 [ns].
+Para un n = 192 y un m = 3 con hebras se demora 1447717500[ns] y sin hebras 74237400 [ns].</t>
   </si>
 </sst>
 </file>
@@ -412,14 +415,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,14 +432,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,17 +692,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
@@ -770,11 +791,11 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>17</v>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>16</v>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -906,7 +927,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1048,17 +1069,17 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
@@ -1079,17 +1100,17 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>15</v>
+      <c r="A14" s="27" t="s">
+        <v>17</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
@@ -1110,15 +1131,15 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
@@ -1139,15 +1160,15 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
@@ -1168,15 +1189,15 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1197,15 +1218,15 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
@@ -1226,15 +1247,15 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
@@ -1255,15 +1276,15 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
@@ -1284,15 +1305,15 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
@@ -1313,15 +1334,15 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
@@ -1342,15 +1363,15 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
